--- a/Outcomes_v2023.xlsx
+++ b/Outcomes_v2023.xlsx
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.414184246915185</v>
+        <v>2.405751822819279</v>
       </c>
       <c r="E5" t="n">
-        <v>2.597922377824784</v>
+        <v>2.598457464933396</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08284513765129514</v>
+        <v>0.08284865378158286</v>
       </c>
       <c r="G5">
         <f>+(D5-E5)^2</f>
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06511877916801398</v>
+        <v>0.06398432179911237</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05510781923681497</v>
+        <v>0.05503583534434438</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003816222490219047</v>
+        <v>0.003751435327126037</v>
       </c>
       <c r="G6">
         <f>+(D6-E6)^2</f>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.2449115256760353</v>
+        <v>-0.2396601537086842</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2404161916971207</v>
+        <v>-0.2408563925623894</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01207508357120592</v>
+        <v>0.01189099694861512</v>
       </c>
       <c r="G7">
         <f>+(D7-E7)^2</f>
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2642822644744808</v>
+        <v>0.2658413004841491</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2638502885103226</v>
+        <v>0.2641979020982981</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0113580326053945</v>
+        <v>0.01120406247098038</v>
       </c>
       <c r="G8">
         <f>+(D8-E8)^2</f>
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.505687001496663</v>
+        <v>2.515339742343925</v>
       </c>
       <c r="E9" t="n">
-        <v>2.639054426431656</v>
+        <v>2.639431539773941</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08523435086584732</v>
+        <v>0.08518034493672484</v>
       </c>
       <c r="G9">
         <f>+(D9-E9)^2</f>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1703342802008699</v>
+        <v>0.1743802793449946</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1640772304683924</v>
+        <v>0.163792541757226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01056891619596808</v>
+        <v>0.01094973268612606</v>
       </c>
       <c r="G10">
         <f>+(D10-E10)^2</f>
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.453128083017933</v>
+        <v>2.451922227255412</v>
       </c>
       <c r="E11" t="n">
-        <v>2.444587447009078</v>
+        <v>2.444618118803427</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07756155119619898</v>
+        <v>0.07756259702225357</v>
       </c>
       <c r="G11">
         <f>+(D11-E11)^2</f>
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2815970961887477</v>
+        <v>0.2781916817359855</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2403616425168479</v>
+        <v>0.2392745098272789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01982671595050356</v>
+        <v>0.01957634022605592</v>
       </c>
       <c r="G12">
         <f>+(D12-E12)^2</f>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5111070780399275</v>
+        <v>0.5078842676311031</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5994070145506444</v>
+        <v>0.6002973338949857</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02822038182454937</v>
+        <v>0.02823186053380995</v>
       </c>
       <c r="G13">
         <f>+(D13-E13)^2</f>
@@ -739,13 +739,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1670780399274047</v>
+        <v>0.1727305605786618</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1279396077649208</v>
+        <v>0.1282932184710577</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01454100699868834</v>
+        <v>0.0146846692100237</v>
       </c>
       <c r="G14">
         <f>+(D14-E14)^2</f>
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2503275650562756</v>
+        <v>0.1911612970792499</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2179310013944247</v>
+        <v>0.2205299028266925</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04185478208940348</v>
+        <v>0.04123982707806092</v>
       </c>
       <c r="G15">
         <f>+(D15-E15)^2</f>
@@ -795,13 +795,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2283051746402979</v>
+        <v>0.2611712761314704</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1053091129485634</v>
+        <v>0.1068490738669156</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04077155590087075</v>
+        <v>0.04110379083734525</v>
       </c>
       <c r="G16">
         <f>+(D16-E16)^2</f>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.2887210314692016</v>
+        <v>-0.2239860640479259</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.07587521321080468</v>
+        <v>-0.07694709266774348</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04195080677475051</v>
+        <v>0.04261563439994877</v>
       </c>
       <c r="G17">
         <f>+(D17-E17)^2</f>
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.03230353344008172</v>
+        <v>0.0184417427168606</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01222243052127098</v>
+        <v>0.01183945672277852</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04457812210601341</v>
+        <v>0.04419463804694808</v>
       </c>
       <c r="G18">
         <f>+(D18-E18)^2</f>
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4560854893138358</v>
+        <v>0.4391284916201117</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3251374036951899</v>
+        <v>0.3251605404918822</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01381958300113352</v>
+        <v>0.01346810671051148</v>
       </c>
       <c r="G19">
         <f>+(D19-E19)^2</f>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4887288609132516</v>
+        <v>0.4297317131187519</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5562084037658171</v>
+        <v>0.5551132020169475</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03516232325218438</v>
+        <v>0.03585088882289057</v>
       </c>
       <c r="G20">
         <f>+(D20-E20)^2</f>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.08753676388084979</v>
+        <v>0.1170907000979453</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2826973130437024</v>
+        <v>0.2814726505704383</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03920565232197835</v>
+        <v>0.04027727542279382</v>
       </c>
       <c r="G21">
         <f>+(D21-E21)^2</f>
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.01957919849406344</v>
+        <v>-0.003474404195546821</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003500553053371542</v>
+        <v>0.003538506655516867</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01799449389770268</v>
+        <v>0.01817006079943923</v>
       </c>
       <c r="G22">
         <f>+(D22-E22)^2</f>
